--- a/data/trans_media/IQ28_P-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ28_P-Habitat-trans_media.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +615,14 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>38,8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>38,33</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>34,46</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38,68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>41,26</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>36,93</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38,74</t>
         </is>
       </c>
     </row>
@@ -639,39 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,56; 53,01</t>
+          <t>35,36; 52,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,62; 52,25</t>
+          <t>32,06; 52,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,12; 46,1</t>
+          <t>26,4; 48,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 38,88</t>
+          <t>32,7; 45,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>35,72; 47,01</t>
+          <t>30,66; 39,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,72; 44,24</t>
+          <t>28,74; 48,38</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36,18; 47,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32,33; 43,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30,94; 45,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>42,23</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>33,46</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>36,08</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35,75</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>34,88</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>36,22</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,54</t>
         </is>
       </c>
     </row>
@@ -719,39 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 38,95</t>
+          <t>33,53; 39,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,49; 39,44</t>
+          <t>33,45; 39,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,16</t>
+          <t>38,3; 47,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,63; 38,85</t>
+          <t>31,19; 36,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,98; 36,84</t>
+          <t>33,51; 38,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 38,18</t>
+          <t>31,92; 39,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33,18; 36,83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34,44; 38,33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36,7; 43,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,15</t>
+          <t>34,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>41,24</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>33,03</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>34,41</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>34,13</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>36,29</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>34,74</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39,3</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,24; 37,17</t>
+          <t>33,01; 37,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,12; 37,12</t>
+          <t>33,2; 36,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,3; 35,2</t>
+          <t>38,18; 45,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,67; 36,34</t>
+          <t>31,4; 34,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,68; 35,41</t>
+          <t>32,67; 36,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,39; 36,17</t>
+          <t>33,91; 39,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32,64; 35,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33,47; 36,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37,01; 41,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,7</t>
+          <t>33,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>40,06</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>33,75</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>32,85</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34,24</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>41,15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33,71</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>32,73</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40,57</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 37,62</t>
+          <t>31,43; 36,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 34,78</t>
+          <t>30,77; 35,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 35,98</t>
+          <t>35,98; 44,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,96; 34,99</t>
+          <t>31,68; 36,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,57; 36,16</t>
+          <t>30,95; 34,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,48; 34,29</t>
+          <t>36,25; 48,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 35,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 34,18</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37,72; 45,24</t>
         </is>
       </c>
     </row>
@@ -926,27 +1077,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35,64</t>
+          <t>35,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,6</t>
+          <t>40,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>35,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>34,31</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>35,76</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>37,16</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,58</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38,6</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,85; 38,4</t>
+          <t>33,79; 38,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 38,02</t>
+          <t>33,67; 38,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,35; 38,24</t>
+          <t>36,59; 44,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 36,29</t>
+          <t>33,08; 37,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 37,48</t>
+          <t>32,34; 36,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,37; 36,42</t>
+          <t>34,18; 41,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,99; 37,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,48; 36,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36,15; 41,47</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>35,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,22 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>34,17</t>
+          <t>40,84</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>34,06</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>34,29</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>34,98</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>37,75</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34,77</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>34,65</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,69; 36,95</t>
+          <t>34,38; 36,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,87; 36,05</t>
+          <t>33,92; 36,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,04; 35,21</t>
+          <t>38,89; 42,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,27; 35,37</t>
+          <t>33,06; 35,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,12; 35,81</t>
+          <t>33,31; 35,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,83; 35,43</t>
+          <t>35,89; 40,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33,98; 35,55</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>33,88; 35,43</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37,99; 41,11</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1288,12 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
